--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -81,12 +81,12 @@
     <t>select_multiple list_select_Z0N9JRWNuW6hyQx3rRIH_15</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>na0bb783e9e205a7c_1</t>
   </si>
   <si>
@@ -96,7 +96,13 @@
     <t>select_Z0N9JRWNuW6hyQx3rRIH_15</t>
   </si>
   <si>
-    <t>na0bb783e9e205a7c_2_end</t>
+    <t>label_DcAHeFhrs4aScv6xur5y_3</t>
+  </si>
+  <si>
+    <t>label_DcAHeFhrs4aScv6xur5y_2</t>
+  </si>
+  <si>
+    <t>na0bb783e9e205a7c_4_end</t>
   </si>
   <si>
     <t>n4e390fc709ebf91a_2</t>
@@ -108,6 +114,15 @@
     <t>n4e390fc709ebf91a_2_end</t>
   </si>
   <si>
+    <t>na0bb783e9e205a7c_9</t>
+  </si>
+  <si>
+    <t>label_DcAHeFhrs4aScv6xur5y_1</t>
+  </si>
+  <si>
+    <t>na0bb783e9e205a7c_9_end</t>
+  </si>
+  <si>
     <t>Page-1</t>
   </si>
   <si>
@@ -117,10 +132,19 @@
     <t>would you like one of the following</t>
   </si>
   <si>
+    <t>Ok.</t>
+  </si>
+  <si>
+    <t>We don't have bread.</t>
+  </si>
+  <si>
     <t>Page-2</t>
   </si>
   <si>
-    <t>This is the second page</t>
+    <t>Pie?</t>
+  </si>
+  <si>
+    <t>Is this an apple pie</t>
   </si>
   <si>
     <t>field-list</t>
@@ -135,6 +159,9 @@
     <t>selected(${ask_Z0N9JRWNuW6hyQx3rRIH_4}, '0')</t>
   </si>
   <si>
+    <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_3')</t>
+  </si>
+  <si>
     <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_2')</t>
   </si>
   <si>
@@ -168,9 +195,6 @@
     <t>list_select_Z0N9JRWNuW6hyQx3rRIH_15</t>
   </si>
   <si>
-    <t>opt_1</t>
-  </si>
-  <si>
     <t>opt_2</t>
   </si>
   <si>
@@ -186,9 +210,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
     <t>Apple Pie</t>
   </si>
   <si>
@@ -219,7 +240,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506230938</t>
+    <t>202506230951</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -583,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,10 +674,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -667,13 +688,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -684,19 +705,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -707,24 +728,24 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -735,21 +756,88 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,10 +855,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -782,85 +870,74 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -878,36 +955,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -159,6 +159,9 @@
     <t>selected(${ask_Z0N9JRWNuW6hyQx3rRIH_4}, '0')</t>
   </si>
   <si>
+    <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_none')</t>
+  </si>
+  <si>
     <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_3')</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>74b93f89b7ea1352a9c1bdbd72ae74ba.jpeg</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -240,7 +246,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506230951</t>
+    <t>202506230955</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -694,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -717,7 +723,7 @@
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -731,7 +737,7 @@
         <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -745,7 +751,7 @@
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -773,7 +779,7 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -789,6 +795,9 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
@@ -826,7 +835,7 @@
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -855,10 +864,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -870,74 +879,74 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -955,36 +964,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -246,7 +246,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506230955</t>
+    <t>202506231652</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -75,105 +75,93 @@
     <t>begin group</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>select_multiple list_select_Z0N9JRWNuW6hyQx3rRIH_15</t>
-  </si>
-  <si>
-    <t>note</t>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
     <t>end group</t>
   </si>
   <si>
-    <t>na0bb783e9e205a7c_1</t>
-  </si>
-  <si>
-    <t>ask_Z0N9JRWNuW6hyQx3rRIH_4</t>
-  </si>
-  <si>
-    <t>select_Z0N9JRWNuW6hyQx3rRIH_15</t>
-  </si>
-  <si>
-    <t>label_DcAHeFhrs4aScv6xur5y_3</t>
-  </si>
-  <si>
-    <t>label_DcAHeFhrs4aScv6xur5y_2</t>
-  </si>
-  <si>
-    <t>na0bb783e9e205a7c_4_end</t>
-  </si>
-  <si>
-    <t>n4e390fc709ebf91a_2</t>
-  </si>
-  <si>
-    <t>label_AoRn15QUsBhANlLEVZ4f_2</t>
-  </si>
-  <si>
-    <t>n4e390fc709ebf91a_2_end</t>
-  </si>
-  <si>
-    <t>na0bb783e9e205a7c_9</t>
-  </si>
-  <si>
-    <t>label_DcAHeFhrs4aScv6xur5y_1</t>
-  </si>
-  <si>
-    <t>na0bb783e9e205a7c_9_end</t>
+    <t>nf6f399028e574ed7_1</t>
+  </si>
+  <si>
+    <t>t_k24GHoGkGPeTWMlgkCIQ_3</t>
+  </si>
+  <si>
+    <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
+  </si>
+  <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
+  </si>
+  <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_2</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_4</t>
+  </si>
+  <si>
+    <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
     <t>Page-1</t>
   </si>
   <si>
-    <t>Did you eat breakfast</t>
-  </si>
-  <si>
-    <t>would you like one of the following</t>
-  </si>
-  <si>
-    <t>Ok.</t>
-  </si>
-  <si>
-    <t>We don't have bread.</t>
-  </si>
-  <si>
-    <t>Page-2</t>
-  </si>
-  <si>
-    <t>Pie?</t>
-  </si>
-  <si>
-    <t>Is this an apple pie</t>
+    <t>Under 5 Number</t>
+  </si>
+  <si>
+    <t>Ask a YES/NO question</t>
+  </si>
+  <si>
+    <t>Was the BCG vaccine administered</t>
+  </si>
+  <si>
+    <t>BCG vaccination date</t>
+  </si>
+  <si>
+    <t>Was the HepB birth dose administered</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>.='opt_none' or not(selected(., 'opt_none'))</t>
-  </si>
-  <si>
-    <t>**None** cannot be selected together with choice.</t>
-  </si>
-  <si>
-    <t>selected(${ask_Z0N9JRWNuW6hyQx3rRIH_4}, '0')</t>
-  </si>
-  <si>
-    <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_none')</t>
-  </si>
-  <si>
-    <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_3')</t>
-  </si>
-  <si>
-    <t>selected(${select_Z0N9JRWNuW6hyQx3rRIH_15}, 'opt_2')</t>
+    <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
+  </si>
+  <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
+  </si>
+  <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>74b93f89b7ea1352a9c1bdbd72ae74ba.jpeg</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -198,7 +186,13 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>list_select_Z0N9JRWNuW6hyQx3rRIH_15</t>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
+    <t>opt_1</t>
   </si>
   <si>
     <t>opt_2</t>
@@ -207,22 +201,13 @@
     <t>opt_3</t>
   </si>
   <si>
-    <t>opt_none</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Apple Pie</t>
-  </si>
-  <si>
-    <t>Bread</t>
-  </si>
-  <si>
-    <t>None of the above</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>form_title</t>
@@ -246,7 +231,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506231652</t>
+    <t>202506232100</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -610,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -691,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -700,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -708,22 +693,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -731,72 +710,84 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>51</v>
+      <c r="L9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -804,48 +795,26 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -856,7 +825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,10 +833,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -879,74 +848,107 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -964,36 +966,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -75,6 +75,9 @@
     <t>begin group</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
@@ -96,9 +96,15 @@
     <t>nf6f399028e574ed7_1</t>
   </si>
   <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_2</t>
+  </si>
+  <si>
     <t>t_k24GHoGkGPeTWMlgkCIQ_3</t>
   </si>
   <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_4</t>
+  </si>
+  <si>
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
@@ -114,18 +120,15 @@
     <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
   </si>
   <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_2</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_4</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
     <t>Page-1</t>
   </si>
   <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
     <t>Under 5 Number</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
     <t>HepB vaccination date</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
@@ -231,7 +231,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506232100</t>
+    <t>202506232104</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -707,16 +707,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>47</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>47</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
@@ -758,16 +758,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
         <v>47</v>
@@ -775,16 +775,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
       <c r="L9" t="s">
         <v>47</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -800,8 +800,8 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="J10">
-        <v>1</v>
+      <c r="J10" t="s">
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>47</v>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>type</t>
   </si>
@@ -96,7 +96,7 @@
     <t>nf6f399028e574ed7_1</t>
   </si>
   <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_2</t>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t>t_k24GHoGkGPeTWMlgkCIQ_3</t>
@@ -132,7 +132,10 @@
     <t>Under 5 Number</t>
   </si>
   <si>
-    <t>Ask a YES/NO question</t>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>Bukahana available?</t>
   </si>
   <si>
     <t>Was the BCG vaccine administered</t>
@@ -231,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506232104</t>
+    <t>202506232106</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -668,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -685,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -713,13 +716,13 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -730,13 +733,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -747,13 +750,13 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -764,13 +767,13 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -781,13 +784,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -798,13 +801,13 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -833,10 +836,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -848,107 +851,107 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -966,36 +969,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -84,12 +84,12 @@
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
+  </si>
+  <si>
     <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
     <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
   </si>
   <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
@@ -138,30 +138,30 @@
     <t>Bukahana available?</t>
   </si>
   <si>
+    <t>Was the HepB birth dose administered</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
+  </si>
+  <si>
     <t>Was the BCG vaccine administered</t>
   </si>
   <si>
     <t>BCG vaccination date</t>
   </si>
   <si>
-    <t>Was the HepB birth dose administered</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
   </si>
   <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
+  </si>
+  <si>
     <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
   </si>
   <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>opt_1</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506232106</t>
+    <t>202506251010</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251010</t>
+    <t>202506251104</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251104</t>
+    <t>202506251123</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -84,12 +84,12 @@
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
+  </si>
+  <si>
     <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
     <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
   </si>
   <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
@@ -138,30 +138,30 @@
     <t>Bukahana available?</t>
   </si>
   <si>
+    <t>Was the BCG vaccine administered</t>
+  </si>
+  <si>
+    <t>BCG vaccination date</t>
+  </si>
+  <si>
     <t>Was the HepB birth dose administered</t>
   </si>
   <si>
     <t>HepB vaccination date</t>
   </si>
   <si>
-    <t>Was the BCG vaccine administered</t>
-  </si>
-  <si>
-    <t>BCG vaccination date</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
   </si>
   <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
+  </si>
+  <si>
     <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
   </si>
   <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
     <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
     <t>opt_1</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251123</t>
+    <t>202506251125</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -84,12 +84,12 @@
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
+  </si>
+  <si>
     <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
     <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
   </si>
   <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
@@ -138,30 +138,30 @@
     <t>Bukahana available?</t>
   </si>
   <si>
+    <t>Was the HepB birth dose administered</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
+  </si>
+  <si>
     <t>Was the BCG vaccine administered</t>
   </si>
   <si>
     <t>BCG vaccination date</t>
   </si>
   <si>
-    <t>Was the HepB birth dose administered</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
   </si>
   <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
+  </si>
+  <si>
     <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
   </si>
   <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>opt_1</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251125</t>
+    <t>202506251128</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -84,12 +84,12 @@
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
+  </si>
+  <si>
     <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
     <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
   </si>
   <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
@@ -138,30 +138,30 @@
     <t>Bukahana available?</t>
   </si>
   <si>
+    <t>Was the BCG vaccine administered</t>
+  </si>
+  <si>
+    <t>BCG vaccination date</t>
+  </si>
+  <si>
     <t>Was the HepB birth dose administered</t>
   </si>
   <si>
     <t>HepB vaccination date</t>
   </si>
   <si>
-    <t>Was the BCG vaccine administered</t>
-  </si>
-  <si>
-    <t>BCG vaccination date</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
   </si>
   <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
+  </si>
+  <si>
     <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
   </si>
   <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
+  </si>
+  <si>
     <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
     <t>opt_1</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251128</t>
+    <t>202506251132</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -72,33 +72,111 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>user end</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>contact end</t>
+  </si>
+  <si>
+    <t>input end</t>
+  </si>
+  <si>
+    <t>patient_sex</t>
+  </si>
+  <si>
+    <t>patient_dob</t>
+  </si>
+  <si>
+    <t>created_by_person_uuid</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid_user</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>data_load</t>
+  </si>
+  <si>
     <t>nf6f399028e574ed7_1</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
     <t>t_k24GHoGkGPeTWMlgkCIQ_3</t>
   </si>
   <si>
@@ -108,27 +186,39 @@
     <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
   </si>
   <si>
+    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
+    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
+  </si>
+  <si>
     <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
     <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
   </si>
   <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
-  </si>
-  <si>
     <t>nf6f399028e574ed7_9_end</t>
   </si>
   <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
     <t>Page-1</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>Under 5 Number</t>
   </si>
   <si>
@@ -138,33 +228,57 @@
     <t>Bukahana available?</t>
   </si>
   <si>
+    <t>Was the HepB birth dose administered</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
+  </si>
+  <si>
     <t>Was the BCG vaccine administered</t>
   </si>
   <si>
     <t>BCG vaccination date</t>
   </si>
   <si>
-    <t>Was the HepB birth dose administered</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
+    <t>./source = "user"</t>
+  </si>
+  <si>
     <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
   </si>
   <si>
+    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
+  </si>
+  <si>
     <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
   </si>
   <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>../inputs/contact/sex</t>
+  </si>
+  <si>
+    <t>date(../inputs/contact/date_of_birth)</t>
+  </si>
+  <si>
+    <t>../inputs/user/contact_id</t>
+  </si>
+  <si>
+    <t>../inputs/user/facility_id</t>
+  </si>
+  <si>
+    <t>../inputs/user/name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>../inputs/source_id</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -189,12 +303,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
+  </si>
+  <si>
     <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
     <t>opt_1</t>
   </si>
   <si>
@@ -234,7 +348,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251132</t>
+    <t>202506251233</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -598,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,13 +779,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -679,146 +796,438 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -836,10 +1245,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -851,107 +1260,107 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -969,36 +1378,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -348,7 +348,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251233</t>
+    <t>202506251831</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -348,7 +348,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251831</t>
+    <t>202506251834</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -99,15 +99,18 @@
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>select_one list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
+    <t>select_one list_vac_bcg</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>select_one list_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -132,6 +135,12 @@
     <t>contact</t>
   </si>
   <si>
+    <t>t_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>t_vac_bcg</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -174,31 +183,52 @@
     <t>data_load</t>
   </si>
   <si>
-    <t>nf6f399028e574ed7_1</t>
-  </si>
-  <si>
-    <t>t_k24GHoGkGPeTWMlgkCIQ_3</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_4</t>
-  </si>
-  <si>
-    <t>ask_k24GHoGkGPeTWMlgkCIQ_14</t>
-  </si>
-  <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_55</t>
-  </si>
-  <si>
-    <t>select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
-    <t>d_k24GHoGkGPeTWMlgkCIQ_53</t>
-  </si>
-  <si>
-    <t>nf6f399028e574ed7_9_end</t>
+    <t>load_t_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>load_t_vac_bcg</t>
+  </si>
+  <si>
+    <t>n41573244e65131c5_1</t>
+  </si>
+  <si>
+    <t>t_uKV6401G0jy6ZUsrKqNN_42</t>
+  </si>
+  <si>
+    <t>d_uKV6401G0jy6ZUsrKqNN_44</t>
+  </si>
+  <si>
+    <t>ask_uKV6401G0jy6ZUsrKqNN_47</t>
+  </si>
+  <si>
+    <t>n41573244e65131c5_4_end</t>
+  </si>
+  <si>
+    <t>n2b2d2fd484e3510a_10</t>
+  </si>
+  <si>
+    <t>vac_bcg</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_62</t>
+  </si>
+  <si>
+    <t>vac_bcg_date</t>
+  </si>
+  <si>
+    <t>vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_95</t>
+  </si>
+  <si>
+    <t>vac_hep_b_birth_date</t>
+  </si>
+  <si>
+    <t>n2b2d2fd484e3510a_23_end</t>
+  </si>
+  <si>
+    <t>d_since_b</t>
   </si>
   <si>
     <t>NO_LABEL</t>
@@ -228,16 +258,30 @@
     <t>Bukahana available?</t>
   </si>
   <si>
-    <t>Was the HepB birth dose administered</t>
+    <t>vac_Birth</t>
+  </si>
+  <si>
+    <t>Was the BCG vaccine administered</t>
+  </si>
+  <si>
+    <t>|  |
+| --- |
+| Remind the parents that vaccinations are very important. The  BCG vaccine helps to prevent Tuberculosis and should be administered within the first 11 months after birth. |</t>
+  </si>
+  <si>
+    <t>BCG vaccination date</t>
+  </si>
+  <si>
+    <t>Was the HepB vaccine administered</t>
+  </si>
+  <si>
+    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
   </si>
   <si>
     <t>HepB vaccination date</t>
   </si>
   <si>
-    <t>Was the BCG vaccine administered</t>
-  </si>
-  <si>
-    <t>BCG vaccination date</t>
+    <t>&lt;div&gt;d_since_b&lt;/div&gt;</t>
   </si>
   <si>
     <t>field-list</t>
@@ -246,13 +290,25 @@
     <t>./source = "user"</t>
   </si>
   <si>
-    <t>selected(${ask_k24GHoGkGPeTWMlgkCIQ_14}, '1')</t>
-  </si>
-  <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_49}, 'opt_1')</t>
-  </si>
-  <si>
-    <t>selected(${select_k24GHoGkGPeTWMlgkCIQ_45}, 'opt_1')</t>
+    <t>selected(${ask_uKV6401G0jy6ZUsrKqNN_47}, '1')</t>
+  </si>
+  <si>
+    <t>${load_t_vac_bcg}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=(365*11 div 12) and ${load_t_vac_bcg}!='yes' and coalesce(${vac_bcg},'')!='' and coalesce(${vac_bcg},'')!='yes' and (selected(${vac_bcg}, 'no') or selected(${vac_bcg}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_bcg}, 'yes')</t>
+  </si>
+  <si>
+    <t>${load_t_vac_hep_b_birth}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_hep_b_birth}, 'yes')</t>
   </si>
   <si>
     <t>1</t>
@@ -279,6 +335,15 @@
     <t>../inputs/source_id</t>
   </si>
   <si>
+    <t>../inputs/contact/t_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>../inputs/contact/t_vac_bcg</t>
+  </si>
+  <si>
+    <t>number(365)</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -303,19 +368,19 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_49</t>
-  </si>
-  <si>
-    <t>list_select_k24GHoGkGPeTWMlgkCIQ_45</t>
-  </si>
-  <si>
-    <t>opt_1</t>
-  </si>
-  <si>
-    <t>opt_2</t>
-  </si>
-  <si>
-    <t>opt_3</t>
+    <t>list_vac_bcg</t>
+  </si>
+  <si>
+    <t>list_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Yes</t>
@@ -348,7 +413,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251834</t>
+    <t>202506251847</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -712,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,16 +844,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -796,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -813,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -827,13 +892,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -841,10 +906,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -855,10 +920,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -872,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -883,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -891,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -905,10 +970,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -919,10 +981,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -933,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -944,13 +1003,13 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -958,52 +1017,46 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1011,10 +1064,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1022,10 +1081,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1033,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1044,10 +1109,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1055,10 +1120,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1066,168 +1131,288 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" t="s">
         <v>76</v>
       </c>
-      <c r="L30" t="s">
-        <v>79</v>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" t="s">
         <v>77</v>
       </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1245,10 +1430,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1260,107 +1445,107 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1378,36 +1563,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -102,15 +102,15 @@
     <t>end group</t>
   </si>
   <si>
+    <t>select_one list_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>select_one list_vac_bcg</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>select_one list_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -207,6 +207,15 @@
     <t>n2b2d2fd484e3510a_10</t>
   </si>
   <si>
+    <t>vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_95</t>
+  </si>
+  <si>
+    <t>vac_hep_b_birth_date</t>
+  </si>
+  <si>
     <t>vac_bcg</t>
   </si>
   <si>
@@ -216,15 +225,6 @@
     <t>vac_bcg_date</t>
   </si>
   <si>
-    <t>vac_hep_b_birth</t>
-  </si>
-  <si>
-    <t>label_bts3jVF8Vt55tUde9S_U_95</t>
-  </si>
-  <si>
-    <t>vac_hep_b_birth_date</t>
-  </si>
-  <si>
     <t>n2b2d2fd484e3510a_23_end</t>
   </si>
   <si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>vac_Birth</t>
+  </si>
+  <si>
+    <t>Was the HepB vaccine administered</t>
+  </si>
+  <si>
+    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
   </si>
   <si>
     <t>Was the BCG vaccine administered</t>
@@ -272,15 +281,6 @@
     <t>BCG vaccination date</t>
   </si>
   <si>
-    <t>Was the HepB vaccine administered</t>
-  </si>
-  <si>
-    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
-  </si>
-  <si>
     <t>&lt;div&gt;d_since_b&lt;/div&gt;</t>
   </si>
   <si>
@@ -293,6 +293,15 @@
     <t>selected(${ask_uKV6401G0jy6ZUsrKqNN_47}, '1')</t>
   </si>
   <si>
+    <t>${load_t_vac_hep_b_birth}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_hep_b_birth}, 'yes')</t>
+  </si>
+  <si>
     <t>${load_t_vac_bcg}!='yes'</t>
   </si>
   <si>
@@ -302,15 +311,6 @@
     <t>selected(${vac_bcg}, 'yes')</t>
   </si>
   <si>
-    <t>${load_t_vac_hep_b_birth}!='yes'</t>
-  </si>
-  <si>
-    <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
-  </si>
-  <si>
-    <t>selected(${vac_hep_b_birth}, 'yes')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -368,12 +368,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>list_vac_bcg</t>
   </si>
   <si>
-    <t>list_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -413,7 +413,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251847</t>
+    <t>202506251919</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -102,15 +102,15 @@
     <t>end group</t>
   </si>
   <si>
+    <t>select_one list_vac_bcg</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>select_one list_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>select_one list_vac_bcg</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -135,12 +135,12 @@
     <t>contact</t>
   </si>
   <si>
+    <t>t_vac_bcg</t>
+  </si>
+  <si>
     <t>t_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>t_vac_bcg</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>data_load</t>
   </si>
   <si>
+    <t>load_t_vac_bcg</t>
+  </si>
+  <si>
     <t>load_t_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>load_t_vac_bcg</t>
-  </si>
-  <si>
     <t>n41573244e65131c5_1</t>
   </si>
   <si>
@@ -207,6 +207,15 @@
     <t>n2b2d2fd484e3510a_10</t>
   </si>
   <si>
+    <t>vac_bcg</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_62</t>
+  </si>
+  <si>
+    <t>vac_bcg_date</t>
+  </si>
+  <si>
     <t>vac_hep_b_birth</t>
   </si>
   <si>
@@ -216,15 +225,6 @@
     <t>vac_hep_b_birth_date</t>
   </si>
   <si>
-    <t>vac_bcg</t>
-  </si>
-  <si>
-    <t>label_bts3jVF8Vt55tUde9S_U_62</t>
-  </si>
-  <si>
-    <t>vac_bcg_date</t>
-  </si>
-  <si>
     <t>n2b2d2fd484e3510a_23_end</t>
   </si>
   <si>
@@ -261,6 +261,17 @@
     <t>vac_Birth</t>
   </si>
   <si>
+    <t>Was the BCG vaccine administered</t>
+  </si>
+  <si>
+    <t>Remind the parents that vaccinations are very important.|  |
+| --- |
+| The  BCG vaccine helps to prevent Tuberculosis and should be administered within the first 11 months after birth. |</t>
+  </si>
+  <si>
+    <t>BCG vaccination date modified constraint</t>
+  </si>
+  <si>
     <t>Was the HepB vaccine administered</t>
   </si>
   <si>
@@ -270,17 +281,6 @@
     <t>HepB vaccination date</t>
   </si>
   <si>
-    <t>Was the BCG vaccine administered</t>
-  </si>
-  <si>
-    <t>|  |
-| --- |
-| Remind the parents that vaccinations are very important. The  BCG vaccine helps to prevent Tuberculosis and should be administered within the first 11 months after birth. |</t>
-  </si>
-  <si>
-    <t>BCG vaccination date</t>
-  </si>
-  <si>
     <t>&lt;div&gt;d_since_b&lt;/div&gt;</t>
   </si>
   <si>
@@ -293,6 +293,15 @@
     <t>selected(${ask_uKV6401G0jy6ZUsrKqNN_47}, '1')</t>
   </si>
   <si>
+    <t>${load_t_vac_bcg}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=(365*11 div 12) and ${load_t_vac_bcg}!='yes' and coalesce(${vac_bcg},'')!='' and coalesce(${vac_bcg},'')!='yes' and (selected(${vac_bcg}, 'no') or selected(${vac_bcg}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_bcg}, 'yes')</t>
+  </si>
+  <si>
     <t>${load_t_vac_hep_b_birth}!='yes'</t>
   </si>
   <si>
@@ -302,15 +311,6 @@
     <t>selected(${vac_hep_b_birth}, 'yes')</t>
   </si>
   <si>
-    <t>${load_t_vac_bcg}!='yes'</t>
-  </si>
-  <si>
-    <t>${d_since_b}&gt;=(365*11 div 12) and ${load_t_vac_bcg}!='yes' and coalesce(${vac_bcg},'')!='' and coalesce(${vac_bcg},'')!='yes' and (selected(${vac_bcg}, 'no') or selected(${vac_bcg}, 'unknown'))</t>
-  </si>
-  <si>
-    <t>selected(${vac_bcg}, 'yes')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -335,12 +335,12 @@
     <t>../inputs/source_id</t>
   </si>
   <si>
+    <t>../inputs/contact/t_vac_bcg</t>
+  </si>
+  <si>
     <t>../inputs/contact/t_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>../inputs/contact/t_vac_bcg</t>
-  </si>
-  <si>
     <t>number(365)</t>
   </si>
   <si>
@@ -368,12 +368,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_vac_bcg</t>
+  </si>
+  <si>
     <t>list_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>list_vac_bcg</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -413,7 +413,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251919</t>
+    <t>202506251926</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -102,15 +102,15 @@
     <t>end group</t>
   </si>
   <si>
+    <t>select_one list_vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>select_one list_vac_bcg</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>select_one list_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -207,6 +207,15 @@
     <t>n2b2d2fd484e3510a_10</t>
   </si>
   <si>
+    <t>vac_hep_b_birth</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_95</t>
+  </si>
+  <si>
+    <t>vac_hep_b_birth_date</t>
+  </si>
+  <si>
     <t>vac_bcg</t>
   </si>
   <si>
@@ -216,15 +225,6 @@
     <t>vac_bcg_date</t>
   </si>
   <si>
-    <t>vac_hep_b_birth</t>
-  </si>
-  <si>
-    <t>label_bts3jVF8Vt55tUde9S_U_95</t>
-  </si>
-  <si>
-    <t>vac_hep_b_birth_date</t>
-  </si>
-  <si>
     <t>n2b2d2fd484e3510a_23_end</t>
   </si>
   <si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>vac_Birth</t>
+  </si>
+  <si>
+    <t>Was the HepB vaccine administered</t>
+  </si>
+  <si>
+    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
   </si>
   <si>
     <t>Was the BCG vaccine administered</t>
@@ -272,15 +281,6 @@
     <t>BCG vaccination date modified constraint</t>
   </si>
   <si>
-    <t>Was the HepB vaccine administered</t>
-  </si>
-  <si>
-    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
-  </si>
-  <si>
     <t>&lt;div&gt;d_since_b&lt;/div&gt;</t>
   </si>
   <si>
@@ -293,6 +293,15 @@
     <t>selected(${ask_uKV6401G0jy6ZUsrKqNN_47}, '1')</t>
   </si>
   <si>
+    <t>${load_t_vac_hep_b_birth}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_hep_b_birth}, 'yes')</t>
+  </si>
+  <si>
     <t>${load_t_vac_bcg}!='yes'</t>
   </si>
   <si>
@@ -302,15 +311,6 @@
     <t>selected(${vac_bcg}, 'yes')</t>
   </si>
   <si>
-    <t>${load_t_vac_hep_b_birth}!='yes'</t>
-  </si>
-  <si>
-    <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
-  </si>
-  <si>
-    <t>selected(${vac_hep_b_birth}, 'yes')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -368,12 +368,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>list_vac_bcg</t>
   </si>
   <si>
-    <t>list_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -413,7 +413,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506251926</t>
+    <t>202506261113</t>
   </si>
   <si>
     <t>English (en)</t>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
   <si>
     <t>type</t>
   </si>
@@ -102,15 +102,15 @@
     <t>end group</t>
   </si>
   <si>
+    <t>select_one list_vac_bcg</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>select_one list_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>select_one list_vac_bcg</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -135,12 +135,12 @@
     <t>contact</t>
   </si>
   <si>
+    <t>t_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>t_vac_bcg</t>
   </si>
   <si>
-    <t>t_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>data_load</t>
   </si>
   <si>
+    <t>load_t_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>load_t_vac_bcg</t>
   </si>
   <si>
-    <t>load_t_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>n41573244e65131c5_1</t>
   </si>
   <si>
@@ -204,7 +204,16 @@
     <t>n41573244e65131c5_4_end</t>
   </si>
   <si>
-    <t>n2b2d2fd484e3510a_10</t>
+    <t>n2b2d2fd484e3510a_9</t>
+  </si>
+  <si>
+    <t>vac_bcg</t>
+  </si>
+  <si>
+    <t>label_bts3jVF8Vt55tUde9S_U_62</t>
+  </si>
+  <si>
+    <t>vac_bcg_date</t>
   </si>
   <si>
     <t>vac_hep_b_birth</t>
@@ -216,21 +225,15 @@
     <t>vac_hep_b_birth_date</t>
   </si>
   <si>
-    <t>vac_bcg</t>
-  </si>
-  <si>
-    <t>label_bts3jVF8Vt55tUde9S_U_62</t>
-  </si>
-  <si>
-    <t>vac_bcg_date</t>
-  </si>
-  <si>
     <t>n2b2d2fd484e3510a_23_end</t>
   </si>
   <si>
     <t>d_since_b</t>
   </si>
   <si>
+    <t>pbts3jVF8Vt55tUde9S_U_97</t>
+  </si>
+  <si>
     <t>NO_LABEL</t>
   </si>
   <si>
@@ -259,15 +262,6 @@
   </si>
   <si>
     <t>vac_Birth</t>
-  </si>
-  <si>
-    <t>Was the HepB vaccine administered</t>
-  </si>
-  <si>
-    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
-  </si>
-  <si>
-    <t>HepB vaccination date</t>
   </si>
   <si>
     <t>Was the BCG vaccine administered</t>
@@ -281,9 +275,21 @@
     <t>BCG vaccination date modified constraint</t>
   </si>
   <si>
+    <t>Was the HepB vaccine administered</t>
+  </si>
+  <si>
+    <t>Remind the parents that vaccinations are very important. The HepB vaccine protects against Hepatitis B and should be administered within one day after birth.</t>
+  </si>
+  <si>
+    <t>HepB vaccination date</t>
+  </si>
+  <si>
     <t>&lt;div&gt;d_since_b&lt;/div&gt;</t>
   </si>
   <si>
+    <t>path: Rhombusn1842298b26dd9836::Has the HepB vaccine been  administered previously</t>
+  </si>
+  <si>
     <t>field-list</t>
   </si>
   <si>
@@ -293,7 +299,16 @@
     <t>selected(${ask_uKV6401G0jy6ZUsrKqNN_47}, '1')</t>
   </si>
   <si>
-    <t>${load_t_vac_hep_b_birth}!='yes'</t>
+    <t>${load_t_vac_bcg}!='yes'</t>
+  </si>
+  <si>
+    <t>${d_since_b}&gt;=(365*11 div 12) and ${load_t_vac_bcg}!='yes' and coalesce(${vac_bcg},'')!='' and coalesce(${vac_bcg},'')!='yes' and (selected(${vac_bcg}, 'no') or selected(${vac_bcg}, 'unknown'))</t>
+  </si>
+  <si>
+    <t>selected(${vac_bcg}, 'yes')</t>
+  </si>
+  <si>
+    <t>${pbts3jVF8Vt55tUde9S_U_97}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes'</t>
   </si>
   <si>
     <t>${d_since_b}&gt;=1 and ${load_t_vac_hep_b_birth}!='yes' and coalesce(${vac_hep_b_birth},'')!='' and coalesce(${vac_hep_b_birth},'')!='yes' and (selected(${vac_hep_b_birth}, 'no') or selected(${vac_hep_b_birth}, 'unknown'))</t>
@@ -302,15 +317,6 @@
     <t>selected(${vac_hep_b_birth}, 'yes')</t>
   </si>
   <si>
-    <t>${load_t_vac_bcg}!='yes'</t>
-  </si>
-  <si>
-    <t>${d_since_b}&gt;=(365*11 div 12) and ${load_t_vac_bcg}!='yes' and coalesce(${vac_bcg},'')!='' and coalesce(${vac_bcg},'')!='yes' and (selected(${vac_bcg}, 'no') or selected(${vac_bcg}, 'unknown'))</t>
-  </si>
-  <si>
-    <t>selected(${vac_bcg}, 'yes')</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -335,12 +341,12 @@
     <t>../inputs/source_id</t>
   </si>
   <si>
+    <t>../inputs/contact/t_vac_hep_b_birth</t>
+  </si>
+  <si>
     <t>../inputs/contact/t_vac_bcg</t>
   </si>
   <si>
-    <t>../inputs/contact/t_vac_hep_b_birth</t>
-  </si>
-  <si>
     <t>number(365)</t>
   </si>
   <si>
@@ -368,12 +374,12 @@
     <t>yes_no</t>
   </si>
   <si>
+    <t>list_vac_bcg</t>
+  </si>
+  <si>
     <t>list_vac_hep_b_birth</t>
   </si>
   <si>
-    <t>list_vac_bcg</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -413,7 +419,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202506261113</t>
+    <t>202507021227</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,13 +853,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -864,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -881,7 +887,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -895,10 +901,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -909,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -923,7 +929,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -959,10 +965,10 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -995,7 +1001,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1009,7 +1015,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1023,7 +1029,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1037,7 +1043,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -1067,13 +1073,13 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1084,13 +1090,13 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1101,7 +1107,7 @@
         <v>49</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1112,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1123,7 +1129,7 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1134,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1145,7 +1151,7 @@
         <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1156,7 +1162,7 @@
         <v>53</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1167,7 +1173,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -1181,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1192,7 +1198,7 @@
         <v>56</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1203,10 +1209,10 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1220,13 +1226,13 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1237,13 +1243,13 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1254,13 +1260,13 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1271,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1282,13 +1288,13 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1299,13 +1305,13 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1316,10 +1322,10 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -1330,13 +1336,13 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -1347,13 +1353,13 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -1364,10 +1370,10 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -1378,13 +1384,13 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -1395,7 +1401,7 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -1406,13 +1412,30 @@
         <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1453,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1445,107 +1468,107 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1563,36 +1586,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/L3/questionaire.xlsx
+++ b/L3/questionaire.xlsx
@@ -419,7 +419,7 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>202507021227</t>
+    <t>202507041242</t>
   </si>
   <si>
     <t>English (en)</t>
